--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2477,28 +2477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1235.407024877764</v>
+        <v>1338.922187077545</v>
       </c>
       <c r="AB2" t="n">
-        <v>1690.338393749114</v>
+        <v>1831.972405437505</v>
       </c>
       <c r="AC2" t="n">
-        <v>1529.014869854534</v>
+        <v>1657.131530251969</v>
       </c>
       <c r="AD2" t="n">
-        <v>1235407.024877764</v>
+        <v>1338922.187077545</v>
       </c>
       <c r="AE2" t="n">
-        <v>1690338.393749114</v>
+        <v>1831972.405437505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.247183476874912e-06</v>
+        <v>1.798020036612124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.36848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1529014.869854534</v>
+        <v>1657131.530251969</v>
       </c>
     </row>
     <row r="3">
@@ -2583,28 +2583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>596.765827241727</v>
+        <v>665.8327696055949</v>
       </c>
       <c r="AB3" t="n">
-        <v>816.5213322823315</v>
+        <v>911.0217698430249</v>
       </c>
       <c r="AC3" t="n">
-        <v>738.5936823241925</v>
+        <v>824.0751307562904</v>
       </c>
       <c r="AD3" t="n">
-        <v>596765.827241727</v>
+        <v>665832.7696055949</v>
       </c>
       <c r="AE3" t="n">
-        <v>816521.3322823315</v>
+        <v>911021.7698430249</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.959472947235647e-06</v>
+        <v>2.824902418653889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.51106770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>738593.6823241925</v>
+        <v>824075.1307562904</v>
       </c>
     </row>
     <row r="4">
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>476.6147871217446</v>
+        <v>537.048361690129</v>
       </c>
       <c r="AB4" t="n">
-        <v>652.1253785003852</v>
+        <v>734.813261365992</v>
       </c>
       <c r="AC4" t="n">
-        <v>589.8874476400249</v>
+        <v>664.6837150181105</v>
       </c>
       <c r="AD4" t="n">
-        <v>476614.7871217446</v>
+        <v>537048.361690129</v>
       </c>
       <c r="AE4" t="n">
-        <v>652125.3785003852</v>
+        <v>734813.261365992</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.232475229492141e-06</v>
+        <v>3.218480093983568e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>589887.4476400249</v>
+        <v>664683.7150181106</v>
       </c>
     </row>
     <row r="5">
@@ -2795,28 +2795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>415.6248378405861</v>
+        <v>475.9730715543989</v>
       </c>
       <c r="AB5" t="n">
-        <v>568.6762392072411</v>
+        <v>651.2473549506502</v>
       </c>
       <c r="AC5" t="n">
-        <v>514.4025770794159</v>
+        <v>589.0932214255628</v>
       </c>
       <c r="AD5" t="n">
-        <v>415624.8378405861</v>
+        <v>475973.0715543989</v>
       </c>
       <c r="AE5" t="n">
-        <v>568676.2392072411</v>
+        <v>651247.3549506502</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.386155720803423e-06</v>
+        <v>3.440035789466691e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.73763020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>514402.5770794158</v>
+        <v>589093.2214255627</v>
       </c>
     </row>
     <row r="6">
@@ -2901,28 +2901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.6353913886882</v>
+        <v>445.3503468155687</v>
       </c>
       <c r="AB6" t="n">
-        <v>538.5893084658439</v>
+        <v>609.3479919837147</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.1871007807051</v>
+        <v>551.1926748540662</v>
       </c>
       <c r="AD6" t="n">
-        <v>393635.3913886882</v>
+        <v>445350.3468155687</v>
       </c>
       <c r="AE6" t="n">
-        <v>538589.3084658439</v>
+        <v>609347.9919837146</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.444882955939994e-06</v>
+        <v>3.52470075450854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.431640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>487187.100780705</v>
+        <v>551192.6748540662</v>
       </c>
     </row>
     <row r="7">
@@ -3007,28 +3007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>392.8035799335791</v>
+        <v>444.5185353604593</v>
       </c>
       <c r="AB7" t="n">
-        <v>537.4511873360319</v>
+        <v>608.2098708539027</v>
       </c>
       <c r="AC7" t="n">
-        <v>486.1576003341594</v>
+        <v>550.1631744075206</v>
       </c>
       <c r="AD7" t="n">
-        <v>392803.5799335791</v>
+        <v>444518.5353604594</v>
       </c>
       <c r="AE7" t="n">
-        <v>537451.1873360319</v>
+        <v>608209.8708539027</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.450578283989805e-06</v>
+        <v>3.532911506285254e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>486157.6003341594</v>
+        <v>550163.1744075206</v>
       </c>
     </row>
   </sheetData>
@@ -3304,28 +3304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>861.9636256660478</v>
+        <v>954.2993517159175</v>
       </c>
       <c r="AB2" t="n">
-        <v>1179.37665978763</v>
+        <v>1305.714473733797</v>
       </c>
       <c r="AC2" t="n">
-        <v>1066.818606643036</v>
+        <v>1181.098916942416</v>
       </c>
       <c r="AD2" t="n">
-        <v>861963.6256660478</v>
+        <v>954299.3517159175</v>
       </c>
       <c r="AE2" t="n">
-        <v>1179376.65978763</v>
+        <v>1305714.473733797</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.536487789212928e-06</v>
+        <v>2.249360322346008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.46223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1066818.606643036</v>
+        <v>1181098.916942416</v>
       </c>
     </row>
     <row r="3">
@@ -3410,28 +3410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.848407239207</v>
+        <v>536.6851207782076</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.813271968576</v>
+        <v>734.3162591252432</v>
       </c>
       <c r="AC3" t="n">
-        <v>591.414250924585</v>
+        <v>664.2341459736718</v>
       </c>
       <c r="AD3" t="n">
-        <v>477848.407239207</v>
+        <v>536685.1207782077</v>
       </c>
       <c r="AE3" t="n">
-        <v>653813.271968576</v>
+        <v>734316.2591252432</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20186774771732e-06</v>
+        <v>3.223451550699142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.28059895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>591414.2509245849</v>
+        <v>664234.1459736718</v>
       </c>
     </row>
     <row r="4">
@@ -3516,28 +3516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.6161233039639</v>
+        <v>441.4527473344135</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.5122597365258</v>
+        <v>604.0151244236446</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.5489844213423</v>
+        <v>546.3687686892026</v>
       </c>
       <c r="AD4" t="n">
-        <v>382616.1233039639</v>
+        <v>441452.7473344135</v>
       </c>
       <c r="AE4" t="n">
-        <v>523512.2597365258</v>
+        <v>604015.1244236446</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455212446680452e-06</v>
+        <v>3.594338659418879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>473548.9844213423</v>
+        <v>546368.7686892026</v>
       </c>
     </row>
     <row r="5">
@@ -3622,28 +3622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>365.5025103661057</v>
+        <v>416.0923925506956</v>
       </c>
       <c r="AB5" t="n">
-        <v>500.0966595156306</v>
+        <v>569.3159681886709</v>
       </c>
       <c r="AC5" t="n">
-        <v>452.3681362215279</v>
+        <v>514.9812512247232</v>
       </c>
       <c r="AD5" t="n">
-        <v>365502.5103661057</v>
+        <v>416092.3925506956</v>
       </c>
       <c r="AE5" t="n">
-        <v>500096.6595156306</v>
+        <v>569315.9681886709</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.51268103069992e-06</v>
+        <v>3.678470504515427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>452368.1362215279</v>
+        <v>514981.2512247232</v>
       </c>
     </row>
     <row r="6">
@@ -3728,28 +3728,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>366.9349182438693</v>
+        <v>417.5248004284591</v>
       </c>
       <c r="AB6" t="n">
-        <v>502.0565431673623</v>
+        <v>571.2758518404027</v>
       </c>
       <c r="AC6" t="n">
-        <v>454.1409713282524</v>
+        <v>516.7540863314476</v>
       </c>
       <c r="AD6" t="n">
-        <v>366934.9182438693</v>
+        <v>417524.8004284591</v>
       </c>
       <c r="AE6" t="n">
-        <v>502056.5431673623</v>
+        <v>571275.8518404027</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.511811758000466e-06</v>
+        <v>3.677197921984554e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.51627604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>454140.9713282524</v>
+        <v>516754.0863314476</v>
       </c>
     </row>
   </sheetData>
@@ -4025,28 +4025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.4759398459299</v>
+        <v>400.7617096395883</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.0636663368761</v>
+        <v>548.3398514876977</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.8196953742184</v>
+        <v>496.0070656615263</v>
       </c>
       <c r="AD2" t="n">
-        <v>346475.9398459299</v>
+        <v>400761.7096395883</v>
       </c>
       <c r="AE2" t="n">
-        <v>474063.6663368761</v>
+        <v>548339.8514876977</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.482506494930921e-06</v>
+        <v>3.840743970671499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.130859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>428819.6953742184</v>
+        <v>496007.0656615263</v>
       </c>
     </row>
     <row r="3">
@@ -4131,28 +4131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>320.5519370356222</v>
+        <v>374.9229581753012</v>
       </c>
       <c r="AB3" t="n">
-        <v>438.5933020055266</v>
+        <v>512.9861318089975</v>
       </c>
       <c r="AC3" t="n">
-        <v>396.7345728316838</v>
+        <v>464.0274553697039</v>
       </c>
       <c r="AD3" t="n">
-        <v>320551.9370356222</v>
+        <v>374922.9581753012</v>
       </c>
       <c r="AE3" t="n">
-        <v>438593.3020055266</v>
+        <v>512986.1318089975</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.576918046965283e-06</v>
+        <v>3.986810295161741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>396734.5728316838</v>
+        <v>464027.4553697039</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4428,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.8946872271795</v>
+        <v>554.9171951237374</v>
       </c>
       <c r="AB2" t="n">
-        <v>660.717814874281</v>
+        <v>759.2621875871497</v>
       </c>
       <c r="AC2" t="n">
-        <v>597.6598339459561</v>
+        <v>686.7992700350045</v>
       </c>
       <c r="AD2" t="n">
-        <v>482894.6872271795</v>
+        <v>554917.1951237374</v>
       </c>
       <c r="AE2" t="n">
-        <v>660717.8148742809</v>
+        <v>759262.1875871497</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.100467988499508e-06</v>
+        <v>3.174424601919406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.97981770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>597659.8339459561</v>
+        <v>686799.2700350045</v>
       </c>
     </row>
     <row r="3">
@@ -4534,28 +4534,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.0190641469681</v>
+        <v>385.1479467259867</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.1243517976459</v>
+        <v>526.9764122387036</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.1152908541703</v>
+        <v>476.6825230706808</v>
       </c>
       <c r="AD3" t="n">
-        <v>337019.0641469681</v>
+        <v>385147.9467259867</v>
       </c>
       <c r="AE3" t="n">
-        <v>461124.3517976459</v>
+        <v>526976.4122387036</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.57887813314106e-06</v>
+        <v>3.89744296795642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.01432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>417115.2908541703</v>
+        <v>476682.5230706808</v>
       </c>
     </row>
     <row r="4">
@@ -4640,28 +4640,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.3671928207275</v>
+        <v>385.4321105483679</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.6547238723454</v>
+        <v>527.3652177169087</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.6448695238454</v>
+        <v>477.0342214997378</v>
       </c>
       <c r="AD4" t="n">
-        <v>329367.1928207275</v>
+        <v>385432.1105483679</v>
       </c>
       <c r="AE4" t="n">
-        <v>450654.7238723454</v>
+        <v>527365.2177169087</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.58289925289128e-06</v>
+        <v>3.9035200619813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>407644.8695238454</v>
+        <v>477034.2214997378</v>
       </c>
     </row>
   </sheetData>
@@ -4937,28 +4937,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.619369714658</v>
+        <v>369.4457998286255</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.2125899043575</v>
+        <v>505.4920421239033</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.8673883415735</v>
+        <v>457.2485910861342</v>
       </c>
       <c r="AD2" t="n">
-        <v>316619.369714658</v>
+        <v>369445.7998286255</v>
       </c>
       <c r="AE2" t="n">
-        <v>433212.5899043575</v>
+        <v>505492.0421239033</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522212855547416e-06</v>
+        <v>3.986327127280233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.44661458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>391867.3883415735</v>
+        <v>457248.5910861342</v>
       </c>
     </row>
     <row r="3">
@@ -5043,28 +5043,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.7408682656127</v>
+        <v>371.5672983795803</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.1153178156843</v>
+        <v>508.3947700352301</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.4930839750476</v>
+        <v>459.8742867196082</v>
       </c>
       <c r="AD3" t="n">
-        <v>318740.8682656127</v>
+        <v>371567.2983795803</v>
       </c>
       <c r="AE3" t="n">
-        <v>436115.3178156843</v>
+        <v>508394.7700352301</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.522324789726423e-06</v>
+        <v>3.986504037905863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.44661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>394493.0839750476</v>
+        <v>459874.2867196082</v>
       </c>
     </row>
   </sheetData>
@@ -5340,28 +5340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>943.0289654167727</v>
+        <v>1036.074382393024</v>
       </c>
       <c r="AB2" t="n">
-        <v>1290.293833984956</v>
+        <v>1417.602678365952</v>
       </c>
       <c r="AC2" t="n">
-        <v>1167.150001408201</v>
+        <v>1282.30866836056</v>
       </c>
       <c r="AD2" t="n">
-        <v>943028.9654167728</v>
+        <v>1036074.382393024</v>
       </c>
       <c r="AE2" t="n">
-        <v>1290293.833984956</v>
+        <v>1417602.678365952</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.460181624354485e-06</v>
+        <v>2.128778769462518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.337890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1167150.001408201</v>
+        <v>1282308.66836056</v>
       </c>
     </row>
     <row r="3">
@@ -5446,28 +5446,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>505.150272455757</v>
+        <v>572.8583928207081</v>
       </c>
       <c r="AB3" t="n">
-        <v>691.1688884311457</v>
+        <v>783.8101257859252</v>
       </c>
       <c r="AC3" t="n">
-        <v>625.204699780904</v>
+        <v>709.0043874653364</v>
       </c>
       <c r="AD3" t="n">
-        <v>505150.272455757</v>
+        <v>572858.3928207081</v>
       </c>
       <c r="AE3" t="n">
-        <v>691168.8884311457</v>
+        <v>783810.1257859252</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.136143776513867e-06</v>
+        <v>3.11425472291675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.58658854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>625204.699780904</v>
+        <v>709004.3874653365</v>
       </c>
     </row>
     <row r="4">
@@ -5552,28 +5552,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.0708456576272</v>
+        <v>463.3047833701377</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.8675573763562</v>
+        <v>633.9140441715136</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.1026536548463</v>
+        <v>573.4141774997324</v>
       </c>
       <c r="AD4" t="n">
-        <v>404070.8456576272</v>
+        <v>463304.7833701377</v>
       </c>
       <c r="AE4" t="n">
-        <v>552867.5573763562</v>
+        <v>633914.0441715136</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.396975957855458e-06</v>
+        <v>3.494518383800746e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.998046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>500102.6536548464</v>
+        <v>573414.1774997325</v>
       </c>
     </row>
     <row r="5">
@@ -5658,28 +5658,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.4115233260576</v>
+        <v>424.171367894679</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.918119968463</v>
+        <v>580.3699786735465</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.1568116767571</v>
+        <v>524.9802824633234</v>
       </c>
       <c r="AD5" t="n">
-        <v>373411.5233260576</v>
+        <v>424171.367894679</v>
       </c>
       <c r="AE5" t="n">
-        <v>510918.119968463</v>
+        <v>580369.9786735465</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.492694189540445e-06</v>
+        <v>3.634064681372855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>462156.8116767571</v>
+        <v>524980.2824633234</v>
       </c>
     </row>
     <row r="6">
@@ -5764,28 +5764,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.1458210197245</v>
+        <v>424.9056655883458</v>
       </c>
       <c r="AB6" t="n">
-        <v>511.9228184678658</v>
+        <v>581.3746771729494</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.0656231614802</v>
+        <v>525.8890939480465</v>
       </c>
       <c r="AD6" t="n">
-        <v>374145.8210197245</v>
+        <v>424905.6655883458</v>
       </c>
       <c r="AE6" t="n">
-        <v>511922.8184678658</v>
+        <v>581374.6771729494</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.494417117710775e-06</v>
+        <v>3.636576514729153e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.490234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>463065.6231614802</v>
+        <v>525889.0939480464</v>
       </c>
     </row>
   </sheetData>
@@ -6061,28 +6061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.9452944158554</v>
+        <v>380.2575980636136</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.1315109268645</v>
+        <v>520.2852214518884</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.2214158489503</v>
+        <v>470.6299301414141</v>
       </c>
       <c r="AD2" t="n">
-        <v>320945.2944158554</v>
+        <v>380257.5980636136</v>
       </c>
       <c r="AE2" t="n">
-        <v>439131.5109268645</v>
+        <v>520285.2214518885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.455180208003017e-06</v>
+        <v>3.933775409350696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.18880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>397221.4158489503</v>
+        <v>470629.9301414141</v>
       </c>
     </row>
   </sheetData>
@@ -6358,28 +6358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.4117982641812</v>
+        <v>732.4254623159167</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.868069463553</v>
+        <v>1002.136829871545</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.8904852902273</v>
+        <v>906.4942973364789</v>
       </c>
       <c r="AD2" t="n">
-        <v>658411.7982641812</v>
+        <v>732425.4623159167</v>
       </c>
       <c r="AE2" t="n">
-        <v>900868.0694635529</v>
+        <v>1002136.829871545</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.793131241710141e-06</v>
+        <v>2.662518725813626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.06640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>814890.4852902272</v>
+        <v>906494.297336479</v>
       </c>
     </row>
     <row r="3">
@@ -6464,28 +6464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>393.1656862108687</v>
+        <v>450.6275837640868</v>
       </c>
       <c r="AB3" t="n">
-        <v>537.9466371196212</v>
+        <v>616.56854039194</v>
       </c>
       <c r="AC3" t="n">
-        <v>486.6057650857709</v>
+        <v>557.724104256314</v>
       </c>
       <c r="AD3" t="n">
-        <v>393165.6862108687</v>
+        <v>450627.5837640868</v>
       </c>
       <c r="AE3" t="n">
-        <v>537946.6371196212</v>
+        <v>616568.54039194</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.412900450510338e-06</v>
+        <v>3.582778819290914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>486605.7650857709</v>
+        <v>557724.104256314</v>
       </c>
     </row>
     <row r="4">
@@ -6570,28 +6570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.4282852664855</v>
+        <v>404.9754341657242</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.366707355795</v>
+        <v>554.1052552807631</v>
       </c>
       <c r="AC4" t="n">
-        <v>429.9983759871212</v>
+        <v>501.2222274083765</v>
       </c>
       <c r="AD4" t="n">
-        <v>347428.2852664855</v>
+        <v>404975.4341657242</v>
       </c>
       <c r="AE4" t="n">
-        <v>475366.707355795</v>
+        <v>554105.2552807631</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.549134240948275e-06</v>
+        <v>3.785064636241847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>429998.3759871212</v>
+        <v>501222.2274083765</v>
       </c>
     </row>
     <row r="5">
@@ -6676,28 +6676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.3397521576507</v>
+        <v>406.8869010568894</v>
       </c>
       <c r="AB5" t="n">
-        <v>477.9820606842549</v>
+        <v>556.7206086092231</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.3641236645843</v>
+        <v>503.5879750858396</v>
       </c>
       <c r="AD5" t="n">
-        <v>349339.7521576507</v>
+        <v>406886.9010568894</v>
       </c>
       <c r="AE5" t="n">
-        <v>477982.0606842549</v>
+        <v>556720.608609223</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.54774105390216e-06</v>
+        <v>3.782995971934094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.71484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>432364.1236645843</v>
+        <v>503587.9750858396</v>
       </c>
     </row>
   </sheetData>
@@ -6973,28 +6973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>788.5509010798255</v>
+        <v>872.1359622962925</v>
       </c>
       <c r="AB2" t="n">
-        <v>1078.930131267931</v>
+        <v>1193.29489953695</v>
       </c>
       <c r="AC2" t="n">
-        <v>975.9585538276685</v>
+        <v>1079.408509125053</v>
       </c>
       <c r="AD2" t="n">
-        <v>788550.9010798255</v>
+        <v>872135.9622962925</v>
       </c>
       <c r="AE2" t="n">
-        <v>1078930.131267931</v>
+        <v>1193294.89953695</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.614654105712983e-06</v>
+        <v>2.374255986161495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.658203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>975958.5538276685</v>
+        <v>1079408.509125053</v>
       </c>
     </row>
     <row r="3">
@@ -7079,28 +7079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.0456135797142</v>
+        <v>510.7429808437446</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.5627984096507</v>
+        <v>698.8210787804709</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.5778576491759</v>
+        <v>632.1265758232059</v>
       </c>
       <c r="AD3" t="n">
-        <v>444045.6135797142</v>
+        <v>510742.9808437446</v>
       </c>
       <c r="AE3" t="n">
-        <v>607562.7984096507</v>
+        <v>698821.0787804709</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.268608519180193e-06</v>
+        <v>3.335858335146106e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.99088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>549577.8576491759</v>
+        <v>632126.575823206</v>
       </c>
     </row>
     <row r="4">
@@ -7185,28 +7185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.1469344520112</v>
+        <v>424.5711364489665</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.9783889799506</v>
+        <v>580.9169596460665</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.1657146632884</v>
+        <v>525.4750603395187</v>
       </c>
       <c r="AD4" t="n">
-        <v>366146.9344520112</v>
+        <v>424571.1364489665</v>
       </c>
       <c r="AE4" t="n">
-        <v>500978.3889799506</v>
+        <v>580916.9596460665</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501446321380833e-06</v>
+        <v>3.678232930252002e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>453165.7146632884</v>
+        <v>525475.0603395187</v>
       </c>
     </row>
     <row r="5">
@@ -7291,28 +7291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.1191405259505</v>
+        <v>419.5433425229058</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.0991395197011</v>
+        <v>574.037710185817</v>
       </c>
       <c r="AC5" t="n">
-        <v>446.9430111164378</v>
+        <v>519.2523567926681</v>
       </c>
       <c r="AD5" t="n">
-        <v>361119.1405259505</v>
+        <v>419543.3425229058</v>
       </c>
       <c r="AE5" t="n">
-        <v>494099.1395197011</v>
+        <v>574037.710185817</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.522897040176537e-06</v>
+        <v>3.709774978377336e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.58138020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>446943.0111164378</v>
+        <v>519252.3567926681</v>
       </c>
     </row>
   </sheetData>
@@ -7588,28 +7588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1128.94178843779</v>
+        <v>1231.755138737148</v>
       </c>
       <c r="AB2" t="n">
-        <v>1544.667960337203</v>
+        <v>1685.341722021678</v>
       </c>
       <c r="AC2" t="n">
-        <v>1397.247018157718</v>
+        <v>1524.495073463892</v>
       </c>
       <c r="AD2" t="n">
-        <v>1128941.78843779</v>
+        <v>1231755.138737148</v>
       </c>
       <c r="AE2" t="n">
-        <v>1544667.960337203</v>
+        <v>1685341.722021678</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.31531497263209e-06</v>
+        <v>1.902961540009518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1397247.018157718</v>
+        <v>1524495.073463892</v>
       </c>
     </row>
     <row r="3">
@@ -7694,28 +7694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>568.2303197097237</v>
+        <v>636.7156891757651</v>
       </c>
       <c r="AB3" t="n">
-        <v>777.4777919793009</v>
+        <v>871.1824958440022</v>
       </c>
       <c r="AC3" t="n">
-        <v>703.27640270973</v>
+        <v>788.0380611529623</v>
       </c>
       <c r="AD3" t="n">
-        <v>568230.3197097237</v>
+        <v>636715.689175765</v>
       </c>
       <c r="AE3" t="n">
-        <v>777477.7919793009</v>
+        <v>871182.4958440022</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.016075940449673e-06</v>
+        <v>2.916803241992264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.1953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>703276.40270973</v>
+        <v>788038.0611529623</v>
       </c>
     </row>
     <row r="4">
@@ -7800,28 +7800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.7437698608737</v>
+        <v>514.6471441185857</v>
       </c>
       <c r="AB4" t="n">
-        <v>622.2004878028782</v>
+        <v>704.1629272126361</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.8185465108401</v>
+        <v>636.9586057383368</v>
       </c>
       <c r="AD4" t="n">
-        <v>454743.7698608737</v>
+        <v>514647.1441185858</v>
       </c>
       <c r="AE4" t="n">
-        <v>622200.4878028783</v>
+        <v>704162.9272126361</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.286837329707152e-06</v>
+        <v>3.308533375836524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.39518229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>562818.5465108401</v>
+        <v>636958.6057383368</v>
       </c>
     </row>
     <row r="5">
@@ -7906,28 +7906,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.0482960323554</v>
+        <v>459.036921636088</v>
       </c>
       <c r="AB5" t="n">
-        <v>545.9954833998084</v>
+        <v>628.0745674622154</v>
       </c>
       <c r="AC5" t="n">
-        <v>493.8864407736037</v>
+        <v>568.1320122518127</v>
       </c>
       <c r="AD5" t="n">
-        <v>399048.2960323554</v>
+        <v>459036.9216360881</v>
       </c>
       <c r="AE5" t="n">
-        <v>545995.4833998084</v>
+        <v>628074.5674622154</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.426500138764538e-06</v>
+        <v>3.510593688184415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.62369791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>493886.4407736037</v>
+        <v>568132.0122518127</v>
       </c>
     </row>
     <row r="6">
@@ -8012,28 +8012,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>385.8816646295136</v>
+        <v>437.288384533468</v>
       </c>
       <c r="AB6" t="n">
-        <v>527.9803174436585</v>
+        <v>598.3172595206704</v>
       </c>
       <c r="AC6" t="n">
-        <v>477.5906169718646</v>
+        <v>541.2147000155646</v>
       </c>
       <c r="AD6" t="n">
-        <v>385881.6646295136</v>
+        <v>437288.3845334681</v>
       </c>
       <c r="AE6" t="n">
-        <v>527980.3174436585</v>
+        <v>598317.2595206704</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.462356965079136e-06</v>
+        <v>3.562470358672654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.44140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>477590.6169718645</v>
+        <v>541214.7000155647</v>
       </c>
     </row>
     <row r="7">
@@ -8118,28 +8118,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>386.9714383951641</v>
+        <v>438.3781582991186</v>
       </c>
       <c r="AB7" t="n">
-        <v>529.471393987247</v>
+        <v>599.8083360642589</v>
       </c>
       <c r="AC7" t="n">
-        <v>478.939387262872</v>
+        <v>542.5634703065723</v>
       </c>
       <c r="AD7" t="n">
-        <v>386971.4383951641</v>
+        <v>438378.1582991186</v>
       </c>
       <c r="AE7" t="n">
-        <v>529471.393987247</v>
+        <v>599808.3360642589</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.463109864319338e-06</v>
+        <v>3.563559632593667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.43815104166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>478939.387262872</v>
+        <v>542563.4703065723</v>
       </c>
     </row>
   </sheetData>
@@ -8415,28 +8415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.5404577728557</v>
+        <v>611.3174000170744</v>
       </c>
       <c r="AB2" t="n">
-        <v>736.8548130530119</v>
+        <v>836.4314361236445</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.5304238774571</v>
+        <v>756.6035937988969</v>
       </c>
       <c r="AD2" t="n">
-        <v>538540.4577728556</v>
+        <v>611317.4000170744</v>
       </c>
       <c r="AE2" t="n">
-        <v>736854.8130530119</v>
+        <v>836431.4361236445</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.989673149150805e-06</v>
+        <v>2.987861555037955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.65690104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>666530.4238774572</v>
+        <v>756603.5937988969</v>
       </c>
     </row>
     <row r="3">
@@ -8521,28 +8521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.2349272030298</v>
+        <v>396.8202509808506</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.5244375048145</v>
+        <v>542.9469738659292</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.0954385570057</v>
+        <v>491.1288767110279</v>
       </c>
       <c r="AD3" t="n">
-        <v>340234.9272030297</v>
+        <v>396820.2509808507</v>
       </c>
       <c r="AE3" t="n">
-        <v>465524.4375048145</v>
+        <v>542946.9738659292</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550878675612746e-06</v>
+        <v>3.830615259437158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.99153645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>421095.4385570057</v>
+        <v>491128.8767110279</v>
       </c>
     </row>
     <row r="4">
@@ -8627,28 +8627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>335.700831726998</v>
+        <v>392.286155504819</v>
       </c>
       <c r="AB4" t="n">
-        <v>459.3206880443329</v>
+        <v>536.7432244054476</v>
       </c>
       <c r="AC4" t="n">
-        <v>415.4837662380155</v>
+        <v>485.5172043920377</v>
       </c>
       <c r="AD4" t="n">
-        <v>335700.831726998</v>
+        <v>392286.1555048189</v>
       </c>
       <c r="AE4" t="n">
-        <v>459320.6880443329</v>
+        <v>536743.2244054476</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.571343536066093e-06</v>
+        <v>3.861347025508318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>415483.7662380155</v>
+        <v>485517.2043920377</v>
       </c>
     </row>
   </sheetData>
@@ -8924,28 +8924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.7957532170295</v>
+        <v>447.5759482991013</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.4945255420674</v>
+        <v>612.3931581200918</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.2466269640393</v>
+        <v>553.9472146083051</v>
       </c>
       <c r="AD2" t="n">
-        <v>384795.7532170295</v>
+        <v>447575.9482991013</v>
       </c>
       <c r="AE2" t="n">
-        <v>526494.5255420675</v>
+        <v>612393.1581200918</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.35532973869601e-06</v>
+        <v>3.612479329269452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.658203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>476246.6269640393</v>
+        <v>553947.2146083051</v>
       </c>
     </row>
     <row r="3">
@@ -9030,28 +9030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.4014144862745</v>
+        <v>380.2381662302453</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.2285709973546</v>
+        <v>520.2586339602019</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.7365810635903</v>
+        <v>470.6058801226183</v>
       </c>
       <c r="AD3" t="n">
-        <v>325401.4144862745</v>
+        <v>380238.1662302453</v>
       </c>
       <c r="AE3" t="n">
-        <v>445228.5709973546</v>
+        <v>520258.6339602019</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.586641615501485e-06</v>
+        <v>3.96725316829758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.34635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>402736.5810635904</v>
+        <v>470605.8801226183</v>
       </c>
     </row>
   </sheetData>
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.8567899389664</v>
+        <v>377.4493592235856</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.115147547702</v>
+        <v>516.4428651802083</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.8248597817641</v>
+        <v>467.1542829595222</v>
       </c>
       <c r="AD2" t="n">
-        <v>323856.7899389664</v>
+        <v>377449.3592235856</v>
       </c>
       <c r="AE2" t="n">
-        <v>443115.147547702</v>
+        <v>516442.8651802083</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544765742752292e-06</v>
+        <v>3.97614627661594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.033203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>400824.8597817641</v>
+        <v>467154.2829595222</v>
       </c>
     </row>
     <row r="3">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.1323384341487</v>
+        <v>376.3077374457367</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.1779681031746</v>
+        <v>514.8808478989572</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.0269479894858</v>
+        <v>465.7413424152886</v>
       </c>
       <c r="AD3" t="n">
-        <v>315132.3384341486</v>
+        <v>376307.7374457367</v>
       </c>
       <c r="AE3" t="n">
-        <v>431177.9681031746</v>
+        <v>514880.8478989572</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.562100210842608e-06</v>
+        <v>4.003231041078338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.93880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390026.9479894859</v>
+        <v>465741.3424152886</v>
       </c>
     </row>
   </sheetData>
@@ -16103,28 +16103,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>328.2724078094597</v>
+        <v>386.5212057367567</v>
       </c>
       <c r="AB2" t="n">
-        <v>449.1567907214229</v>
+        <v>528.8553658011508</v>
       </c>
       <c r="AC2" t="n">
-        <v>406.2898970104845</v>
+        <v>478.382151942256</v>
       </c>
       <c r="AD2" t="n">
-        <v>328272.4078094597</v>
+        <v>386521.2057367567</v>
       </c>
       <c r="AE2" t="n">
-        <v>449156.7907214229</v>
+        <v>528855.3658011508</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.323880207425565e-06</v>
+        <v>3.787172110214753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.494140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>406289.8970104845</v>
+        <v>478382.151942256</v>
       </c>
     </row>
   </sheetData>
@@ -16400,28 +16400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>716.2002839876757</v>
+        <v>799.086899525316</v>
       </c>
       <c r="AB2" t="n">
-        <v>979.9368250784972</v>
+        <v>1093.345949156497</v>
       </c>
       <c r="AC2" t="n">
-        <v>886.4130298429767</v>
+        <v>988.9985462896777</v>
       </c>
       <c r="AD2" t="n">
-        <v>716200.2839876757</v>
+        <v>799086.899525316</v>
       </c>
       <c r="AE2" t="n">
-        <v>979936.8250784973</v>
+        <v>1093345.949156497</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.70246398503028e-06</v>
+        <v>2.515187612293417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>886413.0298429767</v>
+        <v>988998.5462896777</v>
       </c>
     </row>
     <row r="3">
@@ -16506,28 +16506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.914290694856</v>
+        <v>475.9946601694044</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.8087696059849</v>
+        <v>651.2768934461233</v>
       </c>
       <c r="AC3" t="n">
-        <v>517.2361431734375</v>
+        <v>589.1199408084854</v>
       </c>
       <c r="AD3" t="n">
-        <v>417914.290694856</v>
+        <v>475994.6601694044</v>
       </c>
       <c r="AE3" t="n">
-        <v>571808.7696059849</v>
+        <v>651276.8934461232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340691026155988e-06</v>
+        <v>3.458091991936733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.69466145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>517236.1431734375</v>
+        <v>589119.9408084854</v>
       </c>
     </row>
     <row r="4">
@@ -16612,28 +16612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>354.7851573461423</v>
+        <v>412.7801859661191</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.4327042974712</v>
+        <v>564.7840610154119</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.1036883083992</v>
+        <v>510.8818629115083</v>
       </c>
       <c r="AD4" t="n">
-        <v>354785.1573461423</v>
+        <v>412780.1859661191</v>
       </c>
       <c r="AE4" t="n">
-        <v>485432.7042974712</v>
+        <v>564784.0610154119</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.532129595504604e-06</v>
+        <v>3.74091965958472e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.65950520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>439103.6883083992</v>
+        <v>510881.8629115083</v>
       </c>
     </row>
     <row r="5">
@@ -16718,28 +16718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.3580725342389</v>
+        <v>413.3531011542156</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.2165921330591</v>
+        <v>565.5679488509999</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.8127629891522</v>
+        <v>511.5909375922612</v>
       </c>
       <c r="AD5" t="n">
-        <v>355358.0725342389</v>
+        <v>413353.1011542156</v>
       </c>
       <c r="AE5" t="n">
-        <v>486216.5921330591</v>
+        <v>565567.9488509998</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.535477800935597e-06</v>
+        <v>3.745866234018893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>439812.7629891522</v>
+        <v>511590.9375922612</v>
       </c>
     </row>
   </sheetData>
@@ -17015,28 +17015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1030.691662048619</v>
+        <v>1124.425221950371</v>
       </c>
       <c r="AB2" t="n">
-        <v>1410.237802921874</v>
+        <v>1538.488194812265</v>
       </c>
       <c r="AC2" t="n">
-        <v>1275.646686292198</v>
+        <v>1391.657040781125</v>
       </c>
       <c r="AD2" t="n">
-        <v>1030691.662048619</v>
+        <v>1124425.221950371</v>
       </c>
       <c r="AE2" t="n">
-        <v>1410237.802921874</v>
+        <v>1538488.194812265</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.387178248067542e-06</v>
+        <v>2.014417270997947e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.26888020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1275646.686292198</v>
+        <v>1391657.040781124</v>
       </c>
     </row>
     <row r="3">
@@ -17121,28 +17121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>533.4784054235126</v>
+        <v>601.6249272945942</v>
       </c>
       <c r="AB3" t="n">
-        <v>729.9286897066524</v>
+        <v>823.1697673430291</v>
       </c>
       <c r="AC3" t="n">
-        <v>660.2653200223991</v>
+        <v>744.6076000738343</v>
       </c>
       <c r="AD3" t="n">
-        <v>533478.4054235127</v>
+        <v>601624.9272945941</v>
       </c>
       <c r="AE3" t="n">
-        <v>729928.6897066524</v>
+        <v>823169.7673430291</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071467641063509e-06</v>
+        <v>3.008121125230139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.912109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>660265.3200223991</v>
+        <v>744607.6000738343</v>
       </c>
     </row>
     <row r="4">
@@ -17227,28 +17227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>434.5734410682875</v>
+        <v>494.1057287526418</v>
       </c>
       <c r="AB4" t="n">
-        <v>594.602554096758</v>
+        <v>676.0572564856636</v>
       </c>
       <c r="AC4" t="n">
-        <v>537.8545208636888</v>
+        <v>611.5353007789899</v>
       </c>
       <c r="AD4" t="n">
-        <v>434573.4410682875</v>
+        <v>494105.7287526418</v>
       </c>
       <c r="AE4" t="n">
-        <v>594602.554096758</v>
+        <v>676057.2564856636</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.338882356007711e-06</v>
+        <v>3.39645248859532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.20638020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>537854.5208636888</v>
+        <v>611535.3007789899</v>
       </c>
     </row>
     <row r="5">
@@ -17333,28 +17333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.6226976108426</v>
+        <v>432.7113433090619</v>
       </c>
       <c r="AB5" t="n">
-        <v>522.153010876349</v>
+        <v>592.0547497926303</v>
       </c>
       <c r="AC5" t="n">
-        <v>472.3194603646628</v>
+        <v>535.5498754264812</v>
       </c>
       <c r="AD5" t="n">
-        <v>381622.6976108426</v>
+        <v>432711.343309062</v>
       </c>
       <c r="AE5" t="n">
-        <v>522153.0108763489</v>
+        <v>592054.7497926303</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.472399923050468e-06</v>
+        <v>3.590342562496956e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.49348958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>472319.4603646628</v>
+        <v>535549.8754264812</v>
       </c>
     </row>
     <row r="6">
@@ -17439,28 +17439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>379.388189051621</v>
+        <v>430.4768347498403</v>
       </c>
       <c r="AB6" t="n">
-        <v>519.0956576860616</v>
+        <v>588.9973966023431</v>
       </c>
       <c r="AC6" t="n">
-        <v>469.5538966718345</v>
+        <v>532.7843117336529</v>
       </c>
       <c r="AD6" t="n">
-        <v>379388.189051621</v>
+        <v>430476.8347498403</v>
       </c>
       <c r="AE6" t="n">
-        <v>519095.6576860616</v>
+        <v>588997.3966023431</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.476765102925356e-06</v>
+        <v>3.596681541458914e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.470703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>469553.8966718345</v>
+        <v>532784.3117336528</v>
       </c>
     </row>
   </sheetData>
@@ -17736,28 +17736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.811248805685</v>
+        <v>428.797296307704</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.5731361341506</v>
+        <v>586.6993780098054</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.8489631417186</v>
+        <v>530.7056128102977</v>
       </c>
       <c r="AD2" t="n">
-        <v>357811.248805685</v>
+        <v>428797.2963077039</v>
       </c>
       <c r="AE2" t="n">
-        <v>489573.1361341506</v>
+        <v>586699.3780098055</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.052894153546799e-06</v>
+        <v>3.422052244495932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.3359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>442848.9631417186</v>
+        <v>530705.6128102976</v>
       </c>
     </row>
   </sheetData>
@@ -18033,28 +18033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.6504256800064</v>
+        <v>500.0201612859411</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.4443760726059</v>
+        <v>684.149644004072</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.425123338684</v>
+        <v>618.8553621903786</v>
       </c>
       <c r="AD2" t="n">
-        <v>436650.4256800064</v>
+        <v>500020.1612859411</v>
       </c>
       <c r="AE2" t="n">
-        <v>597444.376072606</v>
+        <v>684149.6440040719</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.222653228608157e-06</v>
+        <v>3.382670666410187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.30598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>540425.123338684</v>
+        <v>618855.3621903786</v>
       </c>
     </row>
     <row r="3">
@@ -18139,28 +18139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.1413657120494</v>
+        <v>378.7967010754957</v>
       </c>
       <c r="AB3" t="n">
-        <v>453.082225493236</v>
+        <v>518.2863577425192</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.8406937970581</v>
+        <v>468.821835179044</v>
       </c>
       <c r="AD3" t="n">
-        <v>331141.3657120494</v>
+        <v>378796.7010754957</v>
       </c>
       <c r="AE3" t="n">
-        <v>453082.225493236</v>
+        <v>518286.3577425191</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583741624002015e-06</v>
+        <v>3.932213486387014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.16731770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>409840.6937970581</v>
+        <v>468821.835179044</v>
       </c>
     </row>
     <row r="4">
@@ -18245,28 +18245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.8100255772241</v>
+        <v>380.4653609406703</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.3653595368456</v>
+        <v>520.5694917861288</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.9059287319444</v>
+        <v>470.8870701139303</v>
       </c>
       <c r="AD4" t="n">
-        <v>332810.0255772241</v>
+        <v>380465.3609406704</v>
       </c>
       <c r="AE4" t="n">
-        <v>455365.3595368456</v>
+        <v>520569.4917861287</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.58353260032885e-06</v>
+        <v>3.931895371874727e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.16731770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>411905.9287319444</v>
+        <v>470887.0701139303</v>
       </c>
     </row>
   </sheetData>
@@ -18542,28 +18542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.5723399653989</v>
+        <v>670.8977381420874</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.6248385716893</v>
+        <v>917.9518832452951</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.5918715220748</v>
+        <v>830.3438438619233</v>
       </c>
       <c r="AD2" t="n">
-        <v>597572.3399653989</v>
+        <v>670897.7381420874</v>
       </c>
       <c r="AE2" t="n">
-        <v>817624.8385716893</v>
+        <v>917951.8832452951</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.88657119822507e-06</v>
+        <v>2.816482316862883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.36328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>739591.8715220748</v>
+        <v>830343.8438619233</v>
       </c>
     </row>
     <row r="3">
@@ -18648,28 +18648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.077383716191</v>
+        <v>416.0748001429291</v>
       </c>
       <c r="AB3" t="n">
-        <v>502.2514707117259</v>
+        <v>569.2918974802429</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.3172952613645</v>
+        <v>514.959477790924</v>
       </c>
       <c r="AD3" t="n">
-        <v>367077.383716191</v>
+        <v>416074.8001429291</v>
       </c>
       <c r="AE3" t="n">
-        <v>502251.4707117259</v>
+        <v>569291.8974802429</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.491513650821428e-06</v>
+        <v>3.719607373611492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.14778645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>454317.2952613645</v>
+        <v>514959.477790924</v>
       </c>
     </row>
     <row r="4">
@@ -18754,28 +18754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.4245762582904</v>
+        <v>399.5027834749371</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.5204119427208</v>
+        <v>546.6173331693195</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.8054813994347</v>
+        <v>494.4489420738844</v>
       </c>
       <c r="AD4" t="n">
-        <v>342424.5762582904</v>
+        <v>399502.7834749371</v>
       </c>
       <c r="AE4" t="n">
-        <v>468520.4119427208</v>
+        <v>546617.3331693196</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.558025121407954e-06</v>
+        <v>3.818903059325202e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>423805.4813994347</v>
+        <v>494448.9420738844</v>
       </c>
     </row>
   </sheetData>
